--- a/nr-add-ins-invariant/ig/StructureDefinition-fr-core-practitioner-role.xlsx
+++ b/nr-add-ins-invariant/ig/StructureDefinition-fr-core-practitioner-role.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-29T13:55:09+00:00</t>
+    <t>2025-12-29T14:07:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-ins-invariant/ig/StructureDefinition-fr-core-practitioner-role.xlsx
+++ b/nr-add-ins-invariant/ig/StructureDefinition-fr-core-practitioner-role.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-29T14:07:05+00:00</t>
+    <t>2026-01-12T09:11:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-ins-invariant/ig/StructureDefinition-fr-core-practitioner-role.xlsx
+++ b/nr-add-ins-invariant/ig/StructureDefinition-fr-core-practitioner-role.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-12T09:11:14+00:00</t>
+    <t>2026-01-12T09:57:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-ins-invariant/ig/StructureDefinition-fr-core-practitioner-role.xlsx
+++ b/nr-add-ins-invariant/ig/StructureDefinition-fr-core-practitioner-role.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-12T09:57:25+00:00</t>
+    <t>2026-01-12T09:59:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-ins-invariant/ig/StructureDefinition-fr-core-practitioner-role.xlsx
+++ b/nr-add-ins-invariant/ig/StructureDefinition-fr-core-practitioner-role.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-12T09:59:06+00:00</t>
+    <t>2026-01-12T10:00:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-ins-invariant/ig/StructureDefinition-fr-core-practitioner-role.xlsx
+++ b/nr-add-ins-invariant/ig/StructureDefinition-fr-core-practitioner-role.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1686" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2012" uniqueCount="401">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-12T10:00:46+00:00</t>
+    <t>2026-01-12T10:05:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -685,6 +685,13 @@
     <t>Often, specific identities are assigned for the agent.</t>
   </si>
   <si>
+    <t xml:space="preserve">value:system}
+</t>
+  </si>
+  <si>
+    <t>Slice based on the identifier.system value</t>
+  </si>
+  <si>
     <t>PRD-7 (or XCN.1)</t>
   </si>
   <si>
@@ -695,6 +702,219 @@
   </si>
   <si>
     <t>FiveWs.identifier</t>
+  </si>
+  <si>
+    <t>PractitionerRole.identifier:numeroAm</t>
+  </si>
+  <si>
+    <t>numeroAm</t>
+  </si>
+  <si>
+    <t>Identifiant d’activité propre à l’Assurance Maladie. format: 9 digits. synonyme: numeroAM</t>
+  </si>
+  <si>
+    <t>PractitionerRole.identifier:numeroAm.id</t>
+  </si>
+  <si>
+    <t>PractitionerRole.identifier.id</t>
+  </si>
+  <si>
+    <t>PractitionerRole.identifier:numeroAm.extension</t>
+  </si>
+  <si>
+    <t>PractitionerRole.identifier.extension</t>
+  </si>
+  <si>
+    <t>PractitionerRole.identifier:numeroAm.use</t>
+  </si>
+  <si>
+    <t>PractitionerRole.identifier.use</t>
+  </si>
+  <si>
+    <t>usual | official | temp | secondary | old (If known)</t>
+  </si>
+  <si>
+    <t>The purpose of this identifier.</t>
+  </si>
+  <si>
+    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
+  </si>
+  <si>
+    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>Identifies the purpose for this identifier, if known .</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
+  </si>
+  <si>
+    <t>Identifier.use</t>
+  </si>
+  <si>
+    <t>Role.code or implied by context</t>
+  </si>
+  <si>
+    <t>PractitionerRole.identifier:numeroAm.type</t>
+  </si>
+  <si>
+    <t>PractitionerRole.identifier.type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Description of identifier</t>
+  </si>
+  <si>
+    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
+  </si>
+  <si>
+    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
+  </si>
+  <si>
+    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type|4.0.1</t>
+  </si>
+  <si>
+    <t>Identifier.type</t>
+  </si>
+  <si>
+    <t>CX.5</t>
+  </si>
+  <si>
+    <t>PractitionerRole.identifier:numeroAm.system</t>
+  </si>
+  <si>
+    <t>PractitionerRole.identifier.system</t>
+  </si>
+  <si>
+    <t>The namespace for the identifier value</t>
+  </si>
+  <si>
+    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
+  </si>
+  <si>
+    <t>Identifier.system is always case sensitive.</t>
+  </si>
+  <si>
+    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
+  </si>
+  <si>
+    <t>https://www.ameli.fr</t>
+  </si>
+  <si>
+    <t>http://www.acme.com/identifiers/patient</t>
+  </si>
+  <si>
+    <t>Identifier.system</t>
+  </si>
+  <si>
+    <t>CX.4 / EI-2-4</t>
+  </si>
+  <si>
+    <t>II.root or Role.id.root</t>
+  </si>
+  <si>
+    <t>./IdentifierType</t>
+  </si>
+  <si>
+    <t>PractitionerRole.identifier:numeroAm.value</t>
+  </si>
+  <si>
+    <t>PractitionerRole.identifier.value</t>
+  </si>
+  <si>
+    <t>The value that is unique</t>
+  </si>
+  <si>
+    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
+  </si>
+  <si>
+    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>Identifier.value</t>
+  </si>
+  <si>
+    <t>CX.1 / EI.1</t>
+  </si>
+  <si>
+    <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
+  </si>
+  <si>
+    <t>./Value</t>
+  </si>
+  <si>
+    <t>PractitionerRole.identifier:numeroAm.period</t>
+  </si>
+  <si>
+    <t>PractitionerRole.identifier.period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
+</t>
+  </si>
+  <si>
+    <t>Time period when id is/was valid for use</t>
+  </si>
+  <si>
+    <t>Time period during which identifier is/was valid for use.</t>
+  </si>
+  <si>
+    <t>Identifier.period</t>
+  </si>
+  <si>
+    <t>CX.7 + CX.8</t>
+  </si>
+  <si>
+    <t>Role.effectiveTime or implied by context</t>
+  </si>
+  <si>
+    <t>./StartDate and ./EndDate</t>
+  </si>
+  <si>
+    <t>PractitionerRole.identifier:numeroAm.assigner</t>
+  </si>
+  <si>
+    <t>PractitionerRole.identifier.assigner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Organization|4.0.1)
+</t>
+  </si>
+  <si>
+    <t>Organization that issued id (may be just text)</t>
+  </si>
+  <si>
+    <t>Organization that issued/manages the identifier.</t>
+  </si>
+  <si>
+    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
+  </si>
+  <si>
+    <t>Identifier.assigner</t>
+  </si>
+  <si>
+    <t>CX.4 / (CX.4,CX.9,CX.10)</t>
+  </si>
+  <si>
+    <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
+  </si>
+  <si>
+    <t>./IdentifierIssuingAuthority</t>
   </si>
   <si>
     <t>PractitionerRole.active</t>
@@ -731,10 +951,6 @@
     <t>PractitionerRole.period</t>
   </si>
   <si>
-    <t xml:space="preserve">Period
-</t>
-  </si>
-  <si>
     <t>The period during which the practitioner is authorized to perform in these role(s)</t>
   </si>
   <si>
@@ -791,10 +1007,6 @@
     <t>PractitionerRole.code</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
     <t>The role a person plays representing an organization | Rôle (situation d'exercice) du professionnel de santé au sein de l'organisation</t>
   </si>
   <si>
@@ -823,9 +1035,6 @@
   </si>
   <si>
     <t>Specific specialty of the practitioner.</t>
-  </si>
-  <si>
-    <t>required</t>
   </si>
   <si>
     <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-practitioner-specialty|2.2.0-ballot</t>
@@ -1364,7 +1573,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN46"/>
+  <dimension ref="A1:AN55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1392,7 +1601,7 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="8.53515625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="32.7734375" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
@@ -1409,7 +1618,7 @@
     <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="37" max="37" width="73.27734375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="67.37109375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="87.9765625" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="166.7265625" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="31.65234375" customWidth="true" bestFit="true"/>
   </cols>
@@ -3771,16 +3980,16 @@
         <v>78</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>78</v>
+        <v>214</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>78</v>
+        <v>215</v>
       </c>
       <c r="AD21" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>78</v>
+        <v>116</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>209</v>
@@ -3798,26 +4007,28 @@
         <v>101</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="C22" s="2"/>
+        <v>209</v>
+      </c>
+      <c r="C22" t="s" s="2">
+        <v>221</v>
+      </c>
       <c r="D22" t="s" s="2">
         <v>78</v>
       </c>
@@ -3838,26 +4049,22 @@
         <v>90</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>222</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="Q22" t="s" s="2">
-        <v>224</v>
-      </c>
+      <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
         <v>78</v>
       </c>
@@ -3901,13 +4108,13 @@
         <v>78</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>78</v>
@@ -3916,24 +4123,24 @@
         <v>101</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>78</v>
+        <v>218</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>227</v>
+        <v>219</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3953,21 +4160,19 @@
         <v>78</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>229</v>
+        <v>103</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>230</v>
+        <v>104</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>231</v>
+        <v>105</v>
       </c>
       <c r="N23" s="2"/>
-      <c r="O23" t="s" s="2">
-        <v>232</v>
-      </c>
+      <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>78</v>
       </c>
@@ -4015,7 +4220,7 @@
         <v>78</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>228</v>
+        <v>106</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>79</v>
@@ -4027,38 +4232,38 @@
         <v>78</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>233</v>
+        <v>78</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>234</v>
+        <v>107</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>235</v>
+        <v>78</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>236</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>78</v>
+        <v>109</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>78</v>
@@ -4067,18 +4272,20 @@
         <v>78</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>238</v>
+        <v>110</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>239</v>
+        <v>111</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="N24" s="2"/>
+        <v>112</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>113</v>
+      </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>78</v>
@@ -4115,37 +4322,37 @@
         <v>78</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="AD24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>78</v>
+        <v>116</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>237</v>
+        <v>117</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>241</v>
+        <v>107</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>78</v>
@@ -4156,10 +4363,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4176,22 +4383,26 @@
         <v>78</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="J25" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>243</v>
+        <v>170</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
+        <v>230</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="O25" t="s" s="2">
+        <v>232</v>
+      </c>
       <c r="P25" t="s" s="2">
         <v>78</v>
       </c>
@@ -4215,13 +4426,13 @@
         <v>78</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>78</v>
+        <v>233</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>78</v>
+        <v>234</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>78</v>
+        <v>235</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>78</v>
@@ -4239,7 +4450,7 @@
         <v>78</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>79</v>
@@ -4254,10 +4465,10 @@
         <v>101</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>78</v>
+        <v>193</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>78</v>
@@ -4268,10 +4479,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4282,7 +4493,7 @@
         <v>79</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>78</v>
@@ -4294,19 +4505,19 @@
         <v>90</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>78</v>
@@ -4331,11 +4542,13 @@
         <v>78</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="Y26" s="2"/>
+        <v>152</v>
+      </c>
+      <c r="Y26" t="s" s="2">
+        <v>245</v>
+      </c>
       <c r="Z26" t="s" s="2">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>78</v>
@@ -4359,7 +4572,7 @@
         <v>79</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>78</v>
@@ -4368,13 +4581,13 @@
         <v>101</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>255</v>
+        <v>237</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>235</v>
+        <v>78</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>78</v>
@@ -4382,10 +4595,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4393,10 +4606,10 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>78</v>
@@ -4408,16 +4621,20 @@
         <v>90</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>248</v>
+        <v>131</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
+        <v>252</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="O27" t="s" s="2">
+        <v>254</v>
+      </c>
       <c r="P27" t="s" s="2">
         <v>78</v>
       </c>
@@ -4426,10 +4643,10 @@
         <v>78</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>78</v>
+        <v>255</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>78</v>
+        <v>256</v>
       </c>
       <c r="U27" t="s" s="2">
         <v>78</v>
@@ -4441,11 +4658,13 @@
         <v>78</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="Y27" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="Y27" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="Z27" t="s" s="2">
-        <v>260</v>
+        <v>78</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>78</v>
@@ -4463,13 +4682,13 @@
         <v>78</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>78</v>
@@ -4478,13 +4697,13 @@
         <v>101</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>78</v>
@@ -4492,10 +4711,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4506,7 +4725,7 @@
         <v>79</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>78</v>
@@ -4518,15 +4737,17 @@
         <v>90</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="L28" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="N28" t="s" s="2">
         <v>265</v>
       </c>
-      <c r="L28" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>78</v>
@@ -4539,7 +4760,7 @@
         <v>78</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>78</v>
+        <v>266</v>
       </c>
       <c r="U28" t="s" s="2">
         <v>78</v>
@@ -4575,13 +4796,13 @@
         <v>78</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>78</v>
@@ -4590,16 +4811,16 @@
         <v>101</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>78</v>
+        <v>268</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>270</v>
+        <v>78</v>
       </c>
     </row>
     <row r="29">
@@ -4607,7 +4828,7 @@
         <v>271</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4618,7 +4839,7 @@
         <v>79</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>78</v>
@@ -4627,16 +4848,16 @@
         <v>78</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -4687,13 +4908,13 @@
         <v>78</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>78</v>
@@ -4702,13 +4923,13 @@
         <v>101</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>78</v>
+        <v>279</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>78</v>
@@ -4716,10 +4937,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4730,7 +4951,7 @@
         <v>79</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>78</v>
@@ -4742,18 +4963,18 @@
         <v>90</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="N30" s="2"/>
-      <c r="O30" t="s" s="2">
-        <v>281</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>78</v>
       </c>
@@ -4801,13 +5022,13 @@
         <v>78</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>78</v>
@@ -4816,13 +5037,13 @@
         <v>101</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>78</v>
+        <v>287</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>78</v>
+        <v>289</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>78</v>
@@ -4830,10 +5051,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4844,7 +5065,7 @@
         <v>79</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>78</v>
@@ -4853,25 +5074,29 @@
         <v>78</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="O31" s="2"/>
+        <v>294</v>
+      </c>
+      <c r="O31" t="s" s="2">
+        <v>295</v>
+      </c>
       <c r="P31" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="Q31" s="2"/>
+      <c r="Q31" t="s" s="2">
+        <v>296</v>
+      </c>
       <c r="R31" t="s" s="2">
         <v>78</v>
       </c>
@@ -4915,13 +5140,13 @@
         <v>78</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>78</v>
@@ -4930,24 +5155,24 @@
         <v>101</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>78</v>
+        <v>297</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>78</v>
+        <v>299</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4967,19 +5192,21 @@
         <v>78</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>103</v>
+        <v>273</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>104</v>
+        <v>301</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>105</v>
+        <v>302</v>
       </c>
       <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
+      <c r="O32" t="s" s="2">
+        <v>303</v>
+      </c>
       <c r="P32" t="s" s="2">
         <v>78</v>
       </c>
@@ -5027,7 +5254,7 @@
         <v>78</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>106</v>
+        <v>300</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>79</v>
@@ -5039,38 +5266,38 @@
         <v>78</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>78</v>
+        <v>304</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>107</v>
+        <v>305</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>78</v>
+        <v>306</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>78</v>
+        <v>307</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>290</v>
+        <v>308</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>290</v>
+        <v>308</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>109</v>
+        <v>78</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>78</v>
@@ -5079,20 +5306,18 @@
         <v>78</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>110</v>
+        <v>309</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>111</v>
+        <v>310</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>113</v>
-      </c>
+        <v>311</v>
+      </c>
+      <c r="N33" s="2"/>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>78</v>
@@ -5141,25 +5366,25 @@
         <v>78</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>117</v>
+        <v>308</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>107</v>
+        <v>312</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>78</v>
@@ -5170,46 +5395,42 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>291</v>
+        <v>313</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>291</v>
+        <v>313</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>292</v>
+        <v>78</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="J34" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>110</v>
+        <v>314</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>293</v>
+        <v>315</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="O34" t="s" s="2">
-        <v>207</v>
-      </c>
+        <v>316</v>
+      </c>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>78</v>
       </c>
@@ -5257,25 +5478,25 @@
         <v>78</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>295</v>
+        <v>313</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>193</v>
+        <v>317</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>78</v>
@@ -5286,10 +5507,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>296</v>
+        <v>318</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>296</v>
+        <v>318</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5309,19 +5530,23 @@
         <v>78</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>170</v>
+        <v>240</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>297</v>
+        <v>319</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
+        <v>320</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="O35" t="s" s="2">
+        <v>322</v>
+      </c>
       <c r="P35" t="s" s="2">
         <v>78</v>
       </c>
@@ -5345,13 +5570,11 @@
         <v>78</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="Y35" t="s" s="2">
-        <v>299</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="Y35" s="2"/>
       <c r="Z35" t="s" s="2">
-        <v>300</v>
+        <v>323</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>78</v>
@@ -5369,7 +5592,7 @@
         <v>78</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>296</v>
+        <v>318</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>79</v>
@@ -5384,13 +5607,13 @@
         <v>101</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>78</v>
+        <v>324</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>288</v>
+        <v>325</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>78</v>
+        <v>306</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>78</v>
@@ -5398,10 +5621,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>301</v>
+        <v>326</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>301</v>
+        <v>326</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5412,7 +5635,7 @@
         <v>79</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>78</v>
@@ -5421,16 +5644,16 @@
         <v>78</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>219</v>
+        <v>240</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>302</v>
+        <v>327</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>303</v>
+        <v>328</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -5457,13 +5680,11 @@
         <v>78</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y36" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="Y36" s="2"/>
       <c r="Z36" t="s" s="2">
-        <v>78</v>
+        <v>329</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>78</v>
@@ -5481,13 +5702,13 @@
         <v>78</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>301</v>
+        <v>326</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>78</v>
@@ -5496,13 +5717,13 @@
         <v>101</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>78</v>
+        <v>330</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>288</v>
+        <v>331</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>78</v>
+        <v>332</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>78</v>
@@ -5510,10 +5731,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>304</v>
+        <v>333</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>304</v>
+        <v>333</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5524,7 +5745,7 @@
         <v>79</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>78</v>
@@ -5533,20 +5754,18 @@
         <v>78</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>305</v>
+        <v>334</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>306</v>
+        <v>335</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>308</v>
-      </c>
+        <v>336</v>
+      </c>
+      <c r="N37" s="2"/>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>78</v>
@@ -5595,13 +5814,13 @@
         <v>78</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>304</v>
+        <v>333</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>78</v>
@@ -5613,21 +5832,21 @@
         <v>78</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>288</v>
+        <v>337</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>78</v>
+        <v>338</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>78</v>
+        <v>339</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>309</v>
+        <v>340</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>309</v>
+        <v>340</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5638,7 +5857,7 @@
         <v>79</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>78</v>
@@ -5650,17 +5869,15 @@
         <v>78</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>305</v>
+        <v>341</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>310</v>
+        <v>342</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>308</v>
-      </c>
+        <v>343</v>
+      </c>
+      <c r="N38" s="2"/>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>78</v>
@@ -5709,13 +5926,13 @@
         <v>78</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>309</v>
+        <v>340</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>78</v>
@@ -5724,10 +5941,10 @@
         <v>101</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>78</v>
+        <v>344</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>288</v>
+        <v>345</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>78</v>
@@ -5738,10 +5955,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>312</v>
+        <v>346</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>312</v>
+        <v>346</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5761,19 +5978,21 @@
         <v>78</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>284</v>
+        <v>347</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>313</v>
+        <v>348</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>314</v>
+        <v>349</v>
       </c>
       <c r="N39" s="2"/>
-      <c r="O39" s="2"/>
+      <c r="O39" t="s" s="2">
+        <v>350</v>
+      </c>
       <c r="P39" t="s" s="2">
         <v>78</v>
       </c>
@@ -5821,7 +6040,7 @@
         <v>78</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>312</v>
+        <v>346</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>79</v>
@@ -5839,7 +6058,7 @@
         <v>78</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>288</v>
+        <v>351</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>78</v>
@@ -5850,10 +6069,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>315</v>
+        <v>352</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>315</v>
+        <v>352</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5864,7 +6083,7 @@
         <v>79</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>78</v>
@@ -5876,15 +6095,17 @@
         <v>78</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>103</v>
+        <v>353</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>104</v>
+        <v>354</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N40" s="2"/>
+        <v>355</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>356</v>
+      </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>78</v>
@@ -5933,25 +6154,25 @@
         <v>78</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>106</v>
+        <v>352</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>107</v>
+        <v>357</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>78</v>
@@ -5962,21 +6183,21 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>316</v>
+        <v>358</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>316</v>
+        <v>358</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>109</v>
+        <v>78</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>78</v>
@@ -5988,17 +6209,15 @@
         <v>78</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>113</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="N41" s="2"/>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>78</v>
@@ -6047,19 +6266,19 @@
         <v>78</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>118</v>
+        <v>78</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>78</v>
@@ -6076,14 +6295,14 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>317</v>
+        <v>359</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>317</v>
+        <v>359</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>292</v>
+        <v>109</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
@@ -6096,26 +6315,24 @@
         <v>78</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K42" t="s" s="2">
         <v>110</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>293</v>
+        <v>111</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>294</v>
+        <v>112</v>
       </c>
       <c r="N42" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="O42" t="s" s="2">
-        <v>207</v>
-      </c>
+      <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>78</v>
       </c>
@@ -6163,7 +6380,7 @@
         <v>78</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>295</v>
+        <v>117</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>79</v>
@@ -6181,7 +6398,7 @@
         <v>78</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>193</v>
+        <v>107</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>78</v>
@@ -6192,42 +6409,46 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>318</v>
+        <v>360</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>318</v>
+        <v>360</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>78</v>
+        <v>361</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>319</v>
+        <v>362</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="N43" s="2"/>
-      <c r="O43" s="2"/>
+        <v>363</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="O43" t="s" s="2">
+        <v>207</v>
+      </c>
       <c r="P43" t="s" s="2">
         <v>78</v>
       </c>
@@ -6275,25 +6496,25 @@
         <v>78</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>318</v>
+        <v>364</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>107</v>
+        <v>193</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>78</v>
@@ -6304,10 +6525,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>321</v>
+        <v>365</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>321</v>
+        <v>365</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6318,7 +6539,7 @@
         <v>79</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>78</v>
@@ -6330,13 +6551,13 @@
         <v>78</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>229</v>
+        <v>170</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>322</v>
+        <v>366</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>323</v>
+        <v>367</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6363,13 +6584,13 @@
         <v>78</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>78</v>
+        <v>233</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>78</v>
+        <v>368</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>78</v>
+        <v>369</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>78</v>
@@ -6387,13 +6608,13 @@
         <v>78</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>321</v>
+        <v>365</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>78</v>
@@ -6405,7 +6626,7 @@
         <v>78</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>288</v>
+        <v>357</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>78</v>
@@ -6416,10 +6637,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>324</v>
+        <v>370</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>324</v>
+        <v>370</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6442,13 +6663,13 @@
         <v>78</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>103</v>
+        <v>291</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>325</v>
+        <v>371</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>326</v>
+        <v>372</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -6499,7 +6720,7 @@
         <v>78</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>324</v>
+        <v>370</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>79</v>
@@ -6517,7 +6738,7 @@
         <v>78</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>288</v>
+        <v>357</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>78</v>
@@ -6528,10 +6749,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>327</v>
+        <v>373</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>327</v>
+        <v>373</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6542,7 +6763,7 @@
         <v>79</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>78</v>
@@ -6554,18 +6775,18 @@
         <v>78</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>328</v>
+        <v>374</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>329</v>
+        <v>375</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="N46" s="2"/>
-      <c r="O46" t="s" s="2">
-        <v>331</v>
-      </c>
+        <v>376</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>78</v>
       </c>
@@ -6613,13 +6834,13 @@
         <v>78</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>327</v>
+        <v>373</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>78</v>
@@ -6631,12 +6852,1030 @@
         <v>78</v>
       </c>
       <c r="AL46" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="AM46" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN46" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="B47" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="C47" s="2"/>
+      <c r="D47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E47" s="2"/>
+      <c r="F47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G47" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K47" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="L47" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="O47" s="2"/>
+      <c r="P47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q47" s="2"/>
+      <c r="R47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF47" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="AG47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH47" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL47" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="AM47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN47" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="B48" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="C48" s="2"/>
+      <c r="D48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E48" s="2"/>
+      <c r="F48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K48" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="L48" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="N48" s="2"/>
+      <c r="O48" s="2"/>
+      <c r="P48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q48" s="2"/>
+      <c r="R48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF48" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="AG48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL48" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="AM48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN48" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="B49" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="C49" s="2"/>
+      <c r="D49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E49" s="2"/>
+      <c r="F49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G49" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K49" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="L49" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="N49" s="2"/>
+      <c r="O49" s="2"/>
+      <c r="P49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q49" s="2"/>
+      <c r="R49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF49" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AG49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH49" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL49" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="AM46" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN46" t="s" s="2">
+      <c r="AM49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN49" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="B50" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="C50" s="2"/>
+      <c r="D50" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="E50" s="2"/>
+      <c r="F50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K50" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="L50" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="O50" s="2"/>
+      <c r="P50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q50" s="2"/>
+      <c r="R50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF50" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AK50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL50" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="AM50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN50" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="B51" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="C51" s="2"/>
+      <c r="D51" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="E51" s="2"/>
+      <c r="F51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I51" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="J51" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K51" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="L51" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="O51" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="P51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q51" s="2"/>
+      <c r="R51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF51" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AK51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL51" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="AM51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN51" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="B52" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="C52" s="2"/>
+      <c r="D52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E52" s="2"/>
+      <c r="F52" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G52" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K52" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="L52" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="N52" s="2"/>
+      <c r="O52" s="2"/>
+      <c r="P52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q52" s="2"/>
+      <c r="R52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF52" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL52" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="AM52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN52" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="B53" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="C53" s="2"/>
+      <c r="D53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E53" s="2"/>
+      <c r="F53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G53" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K53" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="L53" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="N53" s="2"/>
+      <c r="O53" s="2"/>
+      <c r="P53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q53" s="2"/>
+      <c r="R53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL53" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="AM53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN53" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="B54" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="C54" s="2"/>
+      <c r="D54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E54" s="2"/>
+      <c r="F54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K54" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="N54" s="2"/>
+      <c r="O54" s="2"/>
+      <c r="P54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q54" s="2"/>
+      <c r="R54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL54" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="AM54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN54" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="B55" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="C55" s="2"/>
+      <c r="D55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E55" s="2"/>
+      <c r="F55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K55" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="N55" s="2"/>
+      <c r="O55" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="P55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q55" s="2"/>
+      <c r="R55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF55" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL55" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="AM55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN55" t="s" s="2">
         <v>78</v>
       </c>
     </row>
